--- a/branches/patient-resource_fig-7/all-profiles.xlsx
+++ b/branches/patient-resource_fig-7/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T10:34:20+00:00</t>
+    <t>2023-02-01T10:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/patient-resource_fig-7/all-profiles.xlsx
+++ b/branches/patient-resource_fig-7/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T10:47:44+00:00</t>
+    <t>2023-02-01T12:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/patient-resource_fig-7/all-profiles.xlsx
+++ b/branches/patient-resource_fig-7/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T12:28:59+00:00</t>
+    <t>2023-02-01T12:29:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
